--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,355 +55,337 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>low</t>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>empty</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -761,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -901,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -930,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,31 +930,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L5">
-        <v>32</v>
-      </c>
-      <c r="M5">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1051,16 +1033,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7157534246575342</v>
+        <v>0.72</v>
       </c>
       <c r="C8">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
         <v>24</v>
@@ -1172,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.9152542372881356</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1280,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5769230769230769</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5263157894736842</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8571428571428571</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5161290322580645</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8482142857142857</v>
+        <v>0.8203125</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1430,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1448,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1498,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4666666666666667</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1548,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1601,16 +1583,16 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.8170731707317073</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L18">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4324324324324325</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.8085106382978723</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.8055555555555556</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3728813559322034</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7833333333333333</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L22">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M22">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1822,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3725490196078431</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7758620689655172</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
         <v>45</v>
@@ -1872,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3682170542635659</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C24">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>326</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7547169811320755</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.7535211267605634</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.348993288590604</v>
+        <v>0.325</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.7407407407407407</v>
+        <v>0.7125</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3376623376623377</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.7301587301587301</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.725</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L28">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.7058823529411765</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,49 +2162,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3137254901960784</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>16</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>35</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,37 +2212,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.288135593220339</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2727272727272727</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2298,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.6511627906976745</v>
+        <v>0.64</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2444444444444444</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2348,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.6458333333333334</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2362,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1984126984126984</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,169 +2380,97 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.625</v>
+      </c>
+      <c r="L34">
+        <v>15</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K34">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="L34">
-        <v>23</v>
-      </c>
-      <c r="M34">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.175</v>
-      </c>
-      <c r="C35">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>66</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>21</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.1206434316353887</v>
-      </c>
-      <c r="C36">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>45</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>328</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L36">
-        <v>17</v>
-      </c>
-      <c r="M36">
-        <v>17</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.004104831070413641</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>0.72</v>
-      </c>
-      <c r="F37">
-        <v>0.28</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>3154</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K37">
-        <v>0.6060606060606061</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2572,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K38">
-        <v>0.6057441253263708</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L38">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2598,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>151</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2624,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>0.58</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2650,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K41">
-        <v>0.5794117647058824</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L41">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2676,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K42">
-        <v>0.575</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2702,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2728,21 +2638,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K44">
-        <v>0.5483870967741935</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2754,21 +2664,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K45">
-        <v>0.5457627118644067</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L45">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2780,21 +2690,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K46">
-        <v>0.5416666666666666</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2806,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K47">
-        <v>0.5357142857142857</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2832,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K48">
-        <v>0.5280898876404494</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2858,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K49">
-        <v>0.525</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2884,21 +2794,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.5230769230769231</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2910,47 +2820,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>0.4931506849315068</v>
+        <v>0.4375</v>
       </c>
       <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>36</v>
-      </c>
-      <c r="M51">
-        <v>36</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>37</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.4857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2962,21 +2872,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K53">
-        <v>0.4853556485355648</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L53">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2988,21 +2898,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K54">
-        <v>0.4523809523809524</v>
+        <v>0.375</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3014,21 +2924,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K55">
-        <v>0.4358974358974359</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3040,21 +2950,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K56">
-        <v>0.40625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3066,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K57">
-        <v>0.3428571428571429</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3092,15 +3002,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K58">
-        <v>0.3191489361702128</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -3118,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K59">
-        <v>0.3050847457627119</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3144,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K60">
-        <v>0.2916666666666667</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3170,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K61">
-        <v>0.2653061224489796</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3196,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K62">
-        <v>0.2459016393442623</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3222,21 +3132,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>46</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K63">
-        <v>0.2372881355932203</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3248,47 +3158,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K64">
-        <v>0.1923076923076923</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K65">
-        <v>0.1368421052631579</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3300,21 +3210,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K66">
-        <v>0.1338582677165354</v>
+        <v>0.1177884615384615</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3326,21 +3236,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>110</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K67">
-        <v>0.1272727272727273</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3352,21 +3262,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K68">
-        <v>0.1172248803827751</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L68">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3378,21 +3288,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>369</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K69">
-        <v>0.1165644171779141</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3404,21 +3314,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K70">
-        <v>0.1162790697674419</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3430,21 +3340,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>152</v>
+        <v>806</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K71">
-        <v>0.1132075471698113</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3456,21 +3366,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K72">
-        <v>0.09619686800894854</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L72">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3482,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>808</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K73">
-        <v>0.09302325581395349</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3508,73 +3418,73 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>195</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K74">
-        <v>0.0889423076923077</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="L74">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>379</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K75">
-        <v>0.08878504672897196</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>195</v>
+        <v>843</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K76">
-        <v>0.06986899563318777</v>
+        <v>0.05537459283387622</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>0.9399999999999999</v>
@@ -3586,21 +3496,21 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>213</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K77">
-        <v>0.06727828746177369</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3612,125 +3522,125 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>305</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K78">
-        <v>0.06437291897891231</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L78">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>843</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K79">
-        <v>0.05420991926182238</v>
+        <v>0.03838951310861423</v>
       </c>
       <c r="L79">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M79">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>820</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K80">
-        <v>0.05401234567901234</v>
+        <v>0.03464203233256351</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M80">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>613</v>
+        <v>836</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K81">
-        <v>0.04938271604938271</v>
+        <v>0.02481902792140641</v>
       </c>
       <c r="L81">
         <v>24</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>462</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K82">
-        <v>0.0487012987012987</v>
+        <v>0.02292768959435626</v>
       </c>
       <c r="L82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3742,189 +3652,85 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>293</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K83">
-        <v>0.04297994269340974</v>
+        <v>0.02033570045190445</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>334</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K84">
-        <v>0.03932584269662921</v>
+        <v>0.01122625215889465</v>
       </c>
       <c r="L84">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M84">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="N84">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O84">
-        <v>0.07999999999999996</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2052</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K85">
-        <v>0.02473498233215548</v>
+        <v>0.0106516290726817</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N85">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="O85">
-        <v>0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K86">
-        <v>0.02182952182952183</v>
-      </c>
-      <c r="L86">
-        <v>21</v>
-      </c>
-      <c r="M86">
-        <v>27</v>
-      </c>
-      <c r="N86">
-        <v>0.78</v>
-      </c>
-      <c r="O86">
-        <v>0.22</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K87">
-        <v>0.02033570045190445</v>
-      </c>
-      <c r="L87">
-        <v>63</v>
-      </c>
-      <c r="M87">
-        <v>72</v>
-      </c>
-      <c r="N87">
-        <v>0.88</v>
-      </c>
-      <c r="O87">
-        <v>0.12</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K88">
-        <v>0.01205857019810508</v>
-      </c>
-      <c r="L88">
-        <v>14</v>
-      </c>
-      <c r="M88">
-        <v>14</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K89">
-        <v>0.01066499372647428</v>
-      </c>
-      <c r="L89">
-        <v>34</v>
-      </c>
-      <c r="M89">
-        <v>47</v>
-      </c>
-      <c r="N89">
-        <v>0.72</v>
-      </c>
-      <c r="O89">
-        <v>0.28</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>3154</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
